--- a/biology/Botanique/Céleri-rave/Céleri-rave.xlsx
+++ b/biology/Botanique/Céleri-rave/Céleri-rave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9leri-rave</t>
+          <t>Céleri-rave</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apium graveolens var rapaceum
 Le céleri-rave (Apium graveolens L. var. rapaceum (Mill.) Gaudin) est une plante herbacée bisannuelle de la famille des Apiacées (ou Ombellifères), tribu des Apieae. Elle est cultivée comme plante potagère pour la base de sa tige tubérisée consommée comme légume. C'est une variété de céleri.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9leri-rave</t>
+          <t>Céleri-rave</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Apium est un mot latin ăpĭum, ĭī, n. (de apis « abeille » au plur. apium), « ache, persil » (Pline[1] HN 19, 123).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Apium est un mot latin ăpĭum, ĭī, n. (de apis « abeille » au plur. apium), « ache, persil » (Pline HN 19, 123).
 L’épithète spécifique graveolens est composé des deux étymons gravis « lourd, enceinte » et olens « odorant », soit « qui a une odeur lourde, forte ».
 Le nom de variété rapaceum vient du latin rapa « rave » suivi du suffixe -eum « semblable à la rave ».
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9leri-rave</t>
+          <t>Céleri-rave</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée bisannuelle, haute de 50 à 80 cm, à tiges creuses et amères.
 Les feuilles très découpées, odorantes, sont vert foncé. Elles ont un pétiole creux en gouttière, légèrement teinté de rouge, amer. Elles se développent en rosette au-dessus de la « boule ».
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9leri-rave</t>
+          <t>Céleri-rave</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le céleri-rave préfère un sol frais, riche en humus et bien ameubli et un climat tempéré, sans chaleur excessive, ni gelées précoces. Il ne supporte pas le manque d'eau. La multiplication se fait par semis en pépinière de février à avril, en situation abritée selon le climat. La levée est assez longue, de l'ordre de trois semaines. Un premier repiquage en pépinière au stade 4-5 feuilles est nécessaire avant le repiquage définitif en place en mai-juin.
 Il convient de veiller aux carences en éléments minéraux, notamment en bore et magnésium.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9leri-rave</t>
+          <t>Céleri-rave</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Principales variétés cultivées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boule de marbre
 Céleri d'Erfurt
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%A9leri-rave</t>
+          <t>Céleri-rave</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,7 +674,9 @@
           <t>Principaux ennemis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>la mouche du céleri
 la septoriose du céleri</t>
@@ -667,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C%C3%A9leri-rave</t>
+          <t>Céleri-rave</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,7 +707,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les boules de céleri-rave peuvent se consommer crues ou cuites. Crues, on les prépare en salade, coupées en tranches ou en rémoulade, râpées. Cuites, elles se préparent de diverses manières : sautées, en gratin, en ragoût, en purée, en frites… et accompagnent les plats de viande.
 Les feuilles ont des qualités aromatiques comme celles des autres variétés de céleri.
@@ -699,7 +723,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C%C3%A9leri-rave</t>
+          <t>Céleri-rave</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -717,7 +741,9 @@
           <t>Aspects économiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La France produit environ 45 000 tonnes de céleri-rave annuellement, principalement dans les régions proches de l'océan : Nord-Pas-de-Calais, Basse-Normandie, Poitou-Charentes.
 </t>
